--- a/master.xlsx
+++ b/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD26219-22BE-4973-8186-80873214CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BFF289-BE65-4F31-9B73-98C4FF8E2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bulan" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="573">
   <si>
     <t>Januari</t>
   </si>
@@ -1740,6 +1740,12 @@
   </si>
   <si>
     <t>Kab/Kota</t>
+  </si>
+  <si>
+    <t>Februari - GERAKS</t>
+  </si>
+  <si>
+    <t>Maret - GERAKS</t>
   </si>
 </sst>
 </file>
@@ -2057,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,6 +2134,16 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753AF80-C296-49C7-A993-7680D59EE086}">
   <dimension ref="A1:A517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+    <sheetView topLeftCell="A506" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A555"/>
     </sheetView>
   </sheetViews>
